--- a/doc/Statystyki/Statystyki - Etapy preprocessingu Słownik.xlsx
+++ b/doc/Statystyki/Statystyki - Etapy preprocessingu Słownik.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>alt.atheism.cat</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Wszystkie</t>
   </si>
   <si>
-    <t>Ilośc słów w słowniku</t>
-  </si>
-  <si>
     <t>Przed preprocessing'iem</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>steaminngu</t>
   </si>
   <si>
-    <t>Ilośc słów w słowniku w poszczególnych kategoriach</t>
-  </si>
-  <si>
     <t>Kategorie</t>
   </si>
   <si>
@@ -124,15 +118,38 @@
   </si>
   <si>
     <t>Steaminng</t>
+  </si>
+  <si>
+    <t>Ilość słów w słowniku w czasie preprocessingu (2)</t>
+  </si>
+  <si>
+    <t>Ilość słów w słowniku w czasie preprocessingu (3)</t>
+  </si>
+  <si>
+    <t>Ilość słów w słowniku w czasie preprocessing'u (1)</t>
+  </si>
+  <si>
+    <t>Ilość słów w słowniku w czasie preprocessing'u</t>
+  </si>
+  <si>
+    <t>Ilość słów w słowniku w czasie preprocessing'u w zależności od kategorii</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -148,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -258,21 +275,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,6 +300,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -296,6 +329,38 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Ilość</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> słow w słowniku </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>w poszczególnych etapach preprocessing'u</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -305,10 +370,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13804396325459317"/>
-          <c:y val="7.9178331875182265E-2"/>
-          <c:w val="0.79701290463692043"/>
-          <c:h val="0.7565587634878973"/>
+          <c:x val="0.1163930827996974"/>
+          <c:y val="0.1254454076521192"/>
+          <c:w val="0.79701290463692032"/>
+          <c:h val="0.75655876348789741"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -339,7 +404,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$C$6:$F$6</c:f>
+              <c:f>Arkusz1!$C$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -360,25 +425,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81295616"/>
-        <c:axId val="81305600"/>
+        <c:axId val="74771840"/>
+        <c:axId val="50566272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81295616"/>
+        <c:axId val="74771840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81305600"/>
+        <c:crossAx val="50566272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81305600"/>
+        <c:axId val="50566272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,7 +451,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81295616"/>
+        <c:crossAx val="74771840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -395,8 +460,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.74803149606299213" l="0.70866141732283472" r="0.70866141732283472" t="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -406,19 +471,67 @@
   <c:lang val="pl-PL"/>
   <c:style val="34"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Ilość słów w słowniku</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>w poszczególnych etapach preprocessing'u</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>w zależności od kategorii</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:sideWall>
+      <c:spPr>
+        <a:effectLst/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:spPr>
+        <a:effectLst/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13229396325459319"/>
-          <c:y val="5.6030183727034111E-2"/>
-          <c:w val="0.70831846019247591"/>
-          <c:h val="0.79822543015456404"/>
+          <c:x val="0.15439346877220458"/>
+          <c:y val="0.18256793471993504"/>
+          <c:w val="0.81439584692797373"/>
+          <c:h val="0.7162101398133669"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -440,7 +553,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$11:$B$30</c:f>
+              <c:f>Arkusz1!$B$12:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -508,7 +621,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$C$11:$C$30</c:f>
+              <c:f>Arkusz1!$C$12:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -592,7 +705,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$11:$B$30</c:f>
+              <c:f>Arkusz1!$B$12:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -660,7 +773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$D$11:$D$30</c:f>
+              <c:f>Arkusz1!$D$12:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -744,7 +857,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$11:$B$30</c:f>
+              <c:f>Arkusz1!$B$12:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -812,7 +925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$E$11:$E$30</c:f>
+              <c:f>Arkusz1!$E$12:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -896,7 +1009,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$11:$B$30</c:f>
+              <c:f>Arkusz1!$B$12:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -964,7 +1077,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$F$11:$F$30</c:f>
+              <c:f>Arkusz1!$F$12:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1033,25 +1146,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="84276736"/>
-        <c:axId val="84278272"/>
+        <c:axId val="74926720"/>
+        <c:axId val="74936704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="84276736"/>
+        <c:axId val="74926720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84278272"/>
+        <c:crossAx val="74936704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84278272"/>
+        <c:axId val="74936704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1172,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84276736"/>
+        <c:crossAx val="74926720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,10 +1183,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63819598979532455"/>
-          <c:y val="0.10359566214152932"/>
-          <c:w val="0.18132948667297569"/>
-          <c:h val="0.16949273256484415"/>
+          <c:x val="0.64692959231624436"/>
+          <c:y val="0.22076027842741097"/>
+          <c:w val="0.18132948667297574"/>
+          <c:h val="0.16949273256484421"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1081,7 +1194,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.74803149606299213" l="0.70866141732283472" r="0.70866141732283472" t="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+    <c:pageMargins b="0.74803149606299224" l="0.70866141732283483" r="0.70866141732283483" t="0.74803149606299224" header="0.31496062992125995" footer="0.31496062992125995"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1091,16 +1204,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1437,15 +1550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L63"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
@@ -1456,506 +1570,573 @@
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="C4" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>127113</v>
+      </c>
+      <c r="D7" s="4">
+        <v>97828</v>
+      </c>
+      <c r="E7" s="4">
+        <v>97490</v>
+      </c>
+      <c r="F7" s="4">
+        <v>75853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C5" s="5" t="s">
+    <row r="12" spans="1:7">
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>23178</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20171</v>
+      </c>
+      <c r="E12" s="5">
+        <v>19866</v>
+      </c>
+      <c r="F12" s="5">
+        <v>17388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>21279</v>
+      </c>
+      <c r="D13" s="5">
+        <v>17482</v>
+      </c>
+      <c r="E13" s="5">
+        <v>17156</v>
+      </c>
+      <c r="F13" s="5">
+        <v>12687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5">
+        <v>21093</v>
+      </c>
+      <c r="D14" s="5">
+        <v>17767</v>
+      </c>
+      <c r="E14" s="5">
+        <v>17441</v>
+      </c>
+      <c r="F14" s="5">
+        <v>12435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>18879</v>
+      </c>
+      <c r="D15" s="5">
+        <v>15336</v>
+      </c>
+      <c r="E15" s="5">
+        <v>15025</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <v>19670</v>
+      </c>
+      <c r="D16" s="5">
+        <v>15560</v>
+      </c>
+      <c r="E16" s="5">
+        <v>15237</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10958</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <v>18709</v>
+      </c>
+      <c r="D17" s="5">
+        <v>15422</v>
+      </c>
+      <c r="E17" s="5">
+        <v>15098</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10901</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>18926</v>
+      </c>
+      <c r="D18" s="5">
+        <v>16104</v>
+      </c>
+      <c r="E18" s="5">
+        <v>15776</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>17735</v>
+      </c>
+      <c r="D19" s="5">
+        <v>13891</v>
+      </c>
+      <c r="E19" s="5">
+        <v>13579</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10479</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5">
+        <v>18191</v>
+      </c>
+      <c r="D20" s="5">
+        <v>15161</v>
+      </c>
+      <c r="E20" s="5">
+        <v>14836</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10340</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5">
+        <v>17561</v>
+      </c>
+      <c r="D21" s="5">
+        <v>14153</v>
+      </c>
+      <c r="E21" s="5">
+        <v>13830</v>
+      </c>
+      <c r="F21" s="5">
+        <v>9806</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5">
+        <v>15036</v>
+      </c>
+      <c r="D22" s="5">
+        <v>12419</v>
+      </c>
+      <c r="E22" s="5">
+        <v>12107</v>
+      </c>
+      <c r="F22" s="5">
+        <v>9513</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5">
+        <v>15213</v>
+      </c>
+      <c r="D23" s="5">
+        <v>12782</v>
+      </c>
+      <c r="E23" s="5">
+        <v>12459</v>
+      </c>
+      <c r="F23" s="5">
+        <v>9022</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>14808</v>
+      </c>
+      <c r="D24" s="5">
+        <v>11356</v>
+      </c>
+      <c r="E24" s="5">
+        <v>11058</v>
+      </c>
+      <c r="F24" s="5">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5">
+        <v>14392</v>
+      </c>
+      <c r="D25" s="5">
+        <v>11864</v>
+      </c>
+      <c r="E25" s="5">
+        <v>11549</v>
+      </c>
+      <c r="F25" s="5">
+        <v>8717</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>14515</v>
+      </c>
+      <c r="D26" s="5">
+        <v>11790</v>
+      </c>
+      <c r="E26" s="5">
+        <v>11485</v>
+      </c>
+      <c r="F26" s="5">
+        <v>8620</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>13706</v>
+      </c>
+      <c r="D27" s="5">
+        <v>11438</v>
+      </c>
+      <c r="E27" s="5">
+        <v>11121</v>
+      </c>
+      <c r="F27" s="5">
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>14400</v>
+      </c>
+      <c r="D28" s="5">
+        <v>12186</v>
+      </c>
+      <c r="E28" s="5">
+        <v>11865</v>
+      </c>
+      <c r="F28" s="5">
+        <v>8364</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5">
+        <v>13500</v>
+      </c>
+      <c r="D29" s="5">
+        <v>10672</v>
+      </c>
+      <c r="E29" s="5">
+        <v>10367</v>
+      </c>
+      <c r="F29" s="5">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5">
+        <v>13256</v>
+      </c>
+      <c r="D30" s="5">
+        <v>10830</v>
+      </c>
+      <c r="E30" s="5">
+        <v>10516</v>
+      </c>
+      <c r="F30" s="5">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4">
+        <v>12981</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10451</v>
+      </c>
+      <c r="E31" s="4">
+        <v>10139</v>
+      </c>
+      <c r="F31" s="4">
+        <v>7815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="40" spans="1:12">
+      <c r="I40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="K40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7">
-        <v>127113</v>
-      </c>
-      <c r="D6" s="7">
-        <v>97828</v>
-      </c>
-      <c r="E6" s="7">
-        <v>97490</v>
-      </c>
-      <c r="F6" s="7">
-        <v>75853</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1">
+      <c r="I41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="4" t="s">
+      <c r="J41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8">
-        <v>23178</v>
-      </c>
-      <c r="D11" s="8">
-        <v>20171</v>
-      </c>
-      <c r="E11" s="8">
-        <v>19866</v>
-      </c>
-      <c r="F11" s="8">
-        <v>17388</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8">
-        <v>21279</v>
-      </c>
-      <c r="D12" s="8">
-        <v>17482</v>
-      </c>
-      <c r="E12" s="8">
-        <v>17156</v>
-      </c>
-      <c r="F12" s="8">
-        <v>12687</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="8">
-        <v>21093</v>
-      </c>
-      <c r="D13" s="8">
-        <v>17767</v>
-      </c>
-      <c r="E13" s="8">
-        <v>17441</v>
-      </c>
-      <c r="F13" s="8">
-        <v>12435</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8">
-        <v>18879</v>
-      </c>
-      <c r="D14" s="8">
-        <v>15336</v>
-      </c>
-      <c r="E14" s="8">
-        <v>15025</v>
-      </c>
-      <c r="F14" s="8">
-        <v>12234</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8">
-        <v>19670</v>
-      </c>
-      <c r="D15" s="8">
-        <v>15560</v>
-      </c>
-      <c r="E15" s="8">
-        <v>15237</v>
-      </c>
-      <c r="F15" s="8">
-        <v>10958</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8">
-        <v>18709</v>
-      </c>
-      <c r="D16" s="8">
-        <v>15422</v>
-      </c>
-      <c r="E16" s="8">
-        <v>15098</v>
-      </c>
-      <c r="F16" s="8">
-        <v>10901</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8">
-        <v>18926</v>
-      </c>
-      <c r="D17" s="8">
-        <v>16104</v>
-      </c>
-      <c r="E17" s="8">
-        <v>15776</v>
-      </c>
-      <c r="F17" s="8">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>17735</v>
-      </c>
-      <c r="D18" s="8">
-        <v>13891</v>
-      </c>
-      <c r="E18" s="8">
-        <v>13579</v>
-      </c>
-      <c r="F18" s="8">
-        <v>10479</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8">
-        <v>18191</v>
-      </c>
-      <c r="D19" s="8">
-        <v>15161</v>
-      </c>
-      <c r="E19" s="8">
-        <v>14836</v>
-      </c>
-      <c r="F19" s="8">
-        <v>10340</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="8">
-        <v>17561</v>
-      </c>
-      <c r="D20" s="8">
-        <v>14153</v>
-      </c>
-      <c r="E20" s="8">
-        <v>13830</v>
-      </c>
-      <c r="F20" s="8">
-        <v>9806</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="8">
-        <v>15036</v>
-      </c>
-      <c r="D21" s="8">
-        <v>12419</v>
-      </c>
-      <c r="E21" s="8">
-        <v>12107</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9513</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8">
-        <v>15213</v>
-      </c>
-      <c r="D22" s="8">
-        <v>12782</v>
-      </c>
-      <c r="E22" s="8">
-        <v>12459</v>
-      </c>
-      <c r="F22" s="8">
-        <v>9022</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="8">
-        <v>14808</v>
-      </c>
-      <c r="D23" s="8">
-        <v>11356</v>
-      </c>
-      <c r="E23" s="8">
-        <v>11058</v>
-      </c>
-      <c r="F23" s="8">
-        <v>9017</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8">
-        <v>14392</v>
-      </c>
-      <c r="D24" s="8">
-        <v>11864</v>
-      </c>
-      <c r="E24" s="8">
-        <v>11549</v>
-      </c>
-      <c r="F24" s="8">
-        <v>8717</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="8">
-        <v>14515</v>
-      </c>
-      <c r="D25" s="8">
-        <v>11790</v>
-      </c>
-      <c r="E25" s="8">
-        <v>11485</v>
-      </c>
-      <c r="F25" s="8">
-        <v>8620</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="8">
-        <v>13706</v>
-      </c>
-      <c r="D26" s="8">
-        <v>11438</v>
-      </c>
-      <c r="E26" s="8">
-        <v>11121</v>
-      </c>
-      <c r="F26" s="8">
-        <v>8464</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
-        <v>14400</v>
-      </c>
-      <c r="D27" s="8">
-        <v>12186</v>
-      </c>
-      <c r="E27" s="8">
-        <v>11865</v>
-      </c>
-      <c r="F27" s="8">
-        <v>8364</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="8">
-        <v>13500</v>
-      </c>
-      <c r="D28" s="8">
-        <v>10672</v>
-      </c>
-      <c r="E28" s="8">
-        <v>10367</v>
-      </c>
-      <c r="F28" s="8">
-        <v>8245</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="8">
-        <v>13256</v>
-      </c>
-      <c r="D29" s="8">
-        <v>10830</v>
-      </c>
-      <c r="E29" s="8">
-        <v>10516</v>
-      </c>
-      <c r="F29" s="8">
-        <v>8110</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="7">
-        <v>12981</v>
-      </c>
-      <c r="D30" s="7">
-        <v>10451</v>
-      </c>
-      <c r="E30" s="7">
-        <v>10139</v>
-      </c>
-      <c r="F30" s="7">
-        <v>7815</v>
-      </c>
-    </row>
-    <row r="39" spans="9:12" ht="15.75" thickBot="1"/>
-    <row r="40" spans="9:12">
-      <c r="I40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="9:12" ht="15.75" thickBot="1">
-      <c r="I41" s="5" t="s">
+      <c r="K41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="L41" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="61" spans="9:12" ht="15.75" thickBot="1"/>
     <row r="62" spans="9:12">
-      <c r="I62" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>28</v>
+      <c r="I62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="9:12" ht="15.75" thickBot="1">
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="B11:F30">
+  <sortState ref="B12:F31">
     <sortCondition descending="1" ref="F11:F30"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C8:F8"/>
+  <mergeCells count="5">
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A65:G66"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
